--- a/doc/20220112/example_220112.xlsx
+++ b/doc/20220112/example_220112.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Dans\ExcelPublisher_Public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Dans\ExcelPublisher_Public\doc\20220112\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD36AA2A-78FA-4582-BA57-080FFB0F6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E01FF-A62C-456B-AD68-C091529734EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5C0A058C-047B-4716-80AF-D517276D0C86}"/>
   </bookViews>
@@ -2658,7 +2658,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2729,9 +2729,8 @@
       <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13">
-        <f>is_trading</f>
-        <v>0</v>
+      <c r="F3" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="G3" s="12">
         <v>100</v>
